--- a/Gesamtdoku/Verbesserungsmöglichkeiten/Übersicht Verbesserungsmöglichkeiten.xlsx
+++ b/Gesamtdoku/Verbesserungsmöglichkeiten/Übersicht Verbesserungsmöglichkeiten.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\Methodisches Konstruieren\Übungen\MS3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\Methodisches Konstruieren\Übungen\git repo\MKon\Gesamtdoku\Verbesserungsmöglichkeiten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AB30123-EFDE-4040-A646-1DFB43B2E43B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062E48AC-714D-4C0A-8113-B9EE268930C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{1FF97F9F-C11D-4C51-B887-11B35ED066E3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1FF97F9F-C11D-4C51-B887-11B35ED066E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -129,9 +129,6 @@
     <t>Keine Produktbezogenen SWOT-Analyse, Udos Begriffe umsetzen</t>
   </si>
   <si>
-    <t>System Footbrint</t>
-  </si>
-  <si>
     <t>Weitere Begriffe eintragen und erklären</t>
   </si>
   <si>
@@ -145,6 +142,9 @@
   </si>
   <si>
     <t>Use Cases in Doku, Flussorientiere Funktionsstruktur anpassen</t>
+  </si>
+  <si>
+    <t>System Footprint</t>
   </si>
 </sst>
 </file>
@@ -526,7 +526,7 @@
   <dimension ref="B3:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -659,7 +659,7 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
@@ -674,7 +674,7 @@
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
@@ -719,7 +719,7 @@
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
@@ -734,7 +734,7 @@
         <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
@@ -759,7 +759,7 @@
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="1">
         <v>2</v>
@@ -774,7 +774,7 @@
         <v>17</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">

--- a/Gesamtdoku/Verbesserungsmöglichkeiten/Übersicht Verbesserungsmöglichkeiten.xlsx
+++ b/Gesamtdoku/Verbesserungsmöglichkeiten/Übersicht Verbesserungsmöglichkeiten.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\Methodisches Konstruieren\Übungen\git repo\MKon\Gesamtdoku\Verbesserungsmöglichkeiten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062E48AC-714D-4C0A-8113-B9EE268930C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33053AAC-095E-4823-A063-5C30331074C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1FF97F9F-C11D-4C51-B887-11B35ED066E3}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1FF97F9F-C11D-4C51-B887-11B35ED066E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -526,7 +526,7 @@
   <dimension ref="B3:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Gesamtdoku/Verbesserungsmöglichkeiten/Übersicht Verbesserungsmöglichkeiten.xlsx
+++ b/Gesamtdoku/Verbesserungsmöglichkeiten/Übersicht Verbesserungsmöglichkeiten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\Methodisches Konstruieren\Übungen\git repo\MKon\Gesamtdoku\Verbesserungsmöglichkeiten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33053AAC-095E-4823-A063-5C30331074C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC260E8-DE25-4157-88CF-95B94C9EB660}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1FF97F9F-C11D-4C51-B887-11B35ED066E3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>MS</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Aufgabenbeschreibung</t>
   </si>
   <si>
-    <t>Canvas Model</t>
-  </si>
-  <si>
     <t>gering</t>
   </si>
   <si>
@@ -69,18 +66,6 @@
     <t>Pascal</t>
   </si>
   <si>
-    <t>Begriffe hinzufügen und einen Text zur Erklärung schreiben</t>
-  </si>
-  <si>
-    <t>Wettbewerbsanalyse</t>
-  </si>
-  <si>
-    <t>1 und 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infos raussuchen und miteinander Vergleichen z.B. Mähdrescher, Aufsitzrasenmäher, https://www.google.de/search?q=autonome+erntemaschinen&amp;source=lnms&amp;tbm=isch&amp;sa=X&amp;ved=2ahUKEwiPxZfj36ruAhXgA2MBHTdmD18Q_AUoAXoECAQQAw&amp;biw=1200&amp;bih=632, </t>
-  </si>
-  <si>
     <t>Patentanalyse</t>
   </si>
   <si>
@@ -93,36 +78,9 @@
     <t>Blaualgen raus, Patente zu autonomen Erntemaschinen suchen und zu Schienensystemem</t>
   </si>
   <si>
-    <t>Marktanalyse</t>
-  </si>
-  <si>
     <t>Philipp</t>
   </si>
   <si>
-    <t>Udos Fragen in Feedback beantworten</t>
-  </si>
-  <si>
-    <t>Anforderungsliste</t>
-  </si>
-  <si>
-    <t>Philipp hat einen Plan was gut ist</t>
-  </si>
-  <si>
-    <t>Bewertung und Entscheidung</t>
-  </si>
-  <si>
-    <t>Leon</t>
-  </si>
-  <si>
-    <t>Udo überzeugen warum Infrastrukturkosten nicht der Killer des Konzeptes sind</t>
-  </si>
-  <si>
-    <t>Teamvorstellung</t>
-  </si>
-  <si>
-    <t>Bilder von uns und so in Doku</t>
-  </si>
-  <si>
     <t>SWOT</t>
   </si>
   <si>
@@ -139,9 +97,6 @@
   </si>
   <si>
     <t>Funktionen</t>
-  </si>
-  <si>
-    <t>Use Cases in Doku, Flussorientiere Funktionsstruktur anpassen</t>
   </si>
   <si>
     <t>System Footprint</t>
@@ -208,11 +163,319 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>132786</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>90177</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1819836</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>66808</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Grafik 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F85AE30F-1310-4CDA-B6F0-8F37A5A80DFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="921680" y="3138177"/>
+          <a:ext cx="8213356" cy="4100396"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1714500</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Grafik 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDFD5DFD-E4B0-4B46-97EA-4976FAB1D7A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect t="3444"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="563880" y="5145741"/>
+          <a:ext cx="8465820" cy="5554532"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2057400</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Grafik 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50519A40-818C-4FE1-9DA4-4FD933E25EE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="3896" r="25594" b="3409"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="792480" y="5775960"/>
+          <a:ext cx="8595360" cy="4351020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1158240</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1356360</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Textfeld 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E62E2DC7-FA12-43B1-BB23-2F0B60F26385}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8488680" y="8610600"/>
+          <a:ext cx="198120" cy="2225040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="950"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="950"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="950"/>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="950"/>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="950"/>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="950"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="950"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="950"/>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="950"/>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="950"/>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="950"/>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="950"/>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="950"/>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6041B80A-BEF1-4E01-B6A3-1D27C97836C8}" name="Tabelle1" displayName="Tabelle1" ref="B3:G17" totalsRowShown="0">
   <autoFilter ref="B3:G17" xr:uid="{C409672B-DC2F-4A1D-BE4E-B30C6F14DB0F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:G159">
-    <sortCondition ref="D4:D159" customList="sehr hoch,hoch,mittel,gering"/>
+    <sortCondition ref="D9:D159" customList="sehr hoch,hoch,mittel,gering"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{803BF3FE-347C-48FA-8625-AC9C4A386C54}" name="Thema"/>
@@ -525,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82BED7E9-F537-4AB0-9F79-457CE1276511}">
   <dimension ref="B3:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -559,223 +822,118 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
         <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" t="s">
-        <v>31</v>
-      </c>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s">
-        <v>18</v>
-      </c>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" t="s">
-        <v>35</v>
-      </c>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" t="s">
-        <v>30</v>
-      </c>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" t="s">
-        <v>33</v>
-      </c>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C15" s="1"/>
@@ -816,8 +974,9 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>